--- a/Tareefon kay phool.xlsx
+++ b/Tareefon kay phool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Documents\Git\TOA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3305645-6608-4D33-AADA-DE24977407B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4584D47D-D4E5-4E63-A1B5-42A11D1EF79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>Expertise</t>
   </si>
@@ -120,18 +120,12 @@
     <t>Adverbs</t>
   </si>
   <si>
-    <t>Sir Adeel's ability and Qualities:</t>
-  </si>
-  <si>
     <t>is a real gift</t>
   </si>
   <si>
     <t>Adj</t>
   </si>
   <si>
-    <t>Adjs</t>
-  </si>
-  <si>
     <t>ability to</t>
   </si>
   <si>
@@ -235,6 +229,21 @@
   </si>
   <si>
     <t>goes above and beyond to ensure his students understand the material</t>
+  </si>
+  <si>
+    <t>adj</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>way of</t>
+  </si>
+  <si>
+    <t>prequality</t>
+  </si>
+  <si>
+    <t>Qualities</t>
   </si>
 </sst>
 </file>
@@ -554,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,12 +591,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -601,7 +610,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -615,7 +624,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -629,7 +638,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -643,7 +652,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -657,7 +666,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -681,7 +690,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -692,7 +701,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -703,7 +712,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -714,7 +723,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -725,7 +734,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -736,104 +745,113 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>17</v>
       </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
       </c>
       <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
         <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
         <v>38</v>
-      </c>
-      <c r="E25" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -843,71 +861,71 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -917,85 +935,85 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
